--- a/style.xlsx
+++ b/style.xlsx
@@ -14,33 +14,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="61">
+  <si>
+    <t>BarrettsBlue</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>Alfred</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Illuminate</t>
+  </si>
   <si>
     <t>Pearl</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>SEX</t>
-  </si>
-  <si>
-    <t>AGE</t>
-  </si>
-  <si>
-    <t>Alfred</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Barbara</t>
+    <t>DTree</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>PearlJ</t>
+  </si>
+  <si>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Journal1a</t>
+  </si>
+  <si>
+    <t>Plateau</t>
+  </si>
+  <si>
+    <t>EGDefault</t>
+  </si>
+  <si>
+    <t>Journal2</t>
+  </si>
+  <si>
+    <t>PowerPointDark</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Journal2a</t>
+  </si>
+  <si>
+    <t>PowerPointLight</t>
+  </si>
+  <si>
+    <t>Journal3</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>FancyPrinter</t>
+  </si>
+  <si>
+    <t>Journal3a</t>
+  </si>
+  <si>
+    <t>Raven</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>Listing</t>
+  </si>
+  <si>
+    <t>Rtf</t>
+  </si>
+  <si>
+    <t>FestivalPrinter</t>
+  </si>
+  <si>
+    <t>Meadow</t>
+  </si>
+  <si>
+    <t>Sapphire</t>
+  </si>
+  <si>
+    <t>Gantt</t>
+  </si>
+  <si>
+    <t>MeadowPrinter</t>
+  </si>
+  <si>
+    <t>SasDocPrinter</t>
+  </si>
+  <si>
+    <t>GrayscalePrinter</t>
+  </si>
+  <si>
+    <t>Minimal</t>
+  </si>
+  <si>
+    <t>SasWeb</t>
+  </si>
+  <si>
+    <t>HTMLBlue</t>
+  </si>
+  <si>
+    <t>MonochromePrinter</t>
+  </si>
+  <si>
+    <t>Seaside</t>
+  </si>
+  <si>
+    <t>HTMLEncore</t>
+  </si>
+  <si>
+    <t>Monospace</t>
+  </si>
+  <si>
+    <t>SeasidePrinter</t>
+  </si>
+  <si>
+    <t>Harvest</t>
+  </si>
+  <si>
+    <t>Moonflower</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>HighContrast</t>
+  </si>
+  <si>
+    <t>Netdraw</t>
+  </si>
+  <si>
+    <t>StatDoc</t>
+  </si>
+  <si>
+    <t>HighContrastLarge</t>
+  </si>
+  <si>
+    <t>NoFontDefault</t>
+  </si>
+  <si>
+    <t>Statistical</t>
+  </si>
+  <si>
+    <t>Ignite</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>vaDark</t>
+  </si>
+  <si>
+    <t>NormalPrinter</t>
+  </si>
+  <si>
+    <t>vaHighContrast</t>
+  </si>
+  <si>
+    <t>Ocean</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1268,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.71" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1">
@@ -1170,7 +1326,7 @@
     <row r="6" ht="12" customHeight="1"/>
     <row r="7" ht="23" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1222,7 +1378,7 @@
     <row r="12" ht="12" customHeight="1"/>
     <row r="13" ht="23" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1274,7 +1430,7 @@
     <row r="18" ht="12" customHeight="1"/>
     <row r="19" ht="23" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1326,7 +1482,7 @@
     <row r="24" ht="12" customHeight="1"/>
     <row r="25" ht="23" customHeight="1">
       <c r="A25" s="13" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -1378,7 +1534,7 @@
     <row r="30" ht="12" customHeight="1"/>
     <row r="31" ht="23" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1430,7 +1586,7 @@
     <row r="36" ht="12" customHeight="1"/>
     <row r="37" ht="23" customHeight="1">
       <c r="A37" s="16" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -1482,7 +1638,7 @@
     <row r="42" ht="12" customHeight="1"/>
     <row r="43" ht="23" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1534,7 +1690,7 @@
     <row r="48" ht="12" customHeight="1"/>
     <row r="49" ht="23" customHeight="1">
       <c r="A49" s="21" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -1585,7 +1741,7 @@
     </row>
     <row r="54" ht="23" customHeight="1">
       <c r="A54" s="24" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
@@ -1637,7 +1793,7 @@
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="23" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -1689,7 +1845,7 @@
     <row r="65" ht="12" customHeight="1"/>
     <row r="66" ht="24" customHeight="1">
       <c r="A66" s="27" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -1741,7 +1897,7 @@
     <row r="71" ht="12" customHeight="1"/>
     <row r="72" ht="23" customHeight="1">
       <c r="A72" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -1793,7 +1949,7 @@
     <row r="77" ht="12" customHeight="1"/>
     <row r="78" ht="23" customHeight="1">
       <c r="A78" s="7" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1845,7 +2001,7 @@
     <row r="83" ht="12" customHeight="1"/>
     <row r="84" ht="24" customHeight="1">
       <c r="A84" s="33" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -1897,7 +2053,7 @@
     <row r="89" ht="12" customHeight="1"/>
     <row r="90" ht="23" customHeight="1">
       <c r="A90" s="30" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -1949,7 +2105,7 @@
     <row r="95" ht="12" customHeight="1"/>
     <row r="96" ht="23" customHeight="1">
       <c r="A96" s="13" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -2001,7 +2157,7 @@
     <row r="101" ht="12" customHeight="1"/>
     <row r="102" ht="23" customHeight="1">
       <c r="A102" s="36" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -2053,7 +2209,7 @@
     <row r="107" ht="12" customHeight="1"/>
     <row r="108" ht="22" customHeight="1">
       <c r="A108" s="39" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B108" s="39"/>
       <c r="C108" s="39"/>
@@ -2105,7 +2261,7 @@
     <row r="113" ht="12" customHeight="1"/>
     <row r="114" ht="23" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -2157,7 +2313,7 @@
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="23" customHeight="1">
       <c r="A120" s="42" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B120" s="42"/>
       <c r="C120" s="42"/>
@@ -2209,7 +2365,7 @@
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="23" customHeight="1">
       <c r="A126" s="45" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B126" s="45"/>
       <c r="C126" s="45"/>
@@ -2260,7 +2416,7 @@
     </row>
     <row r="131" ht="23" customHeight="1">
       <c r="A131" s="48" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B131" s="48"/>
       <c r="C131" s="48"/>
@@ -2312,7 +2468,7 @@
     <row r="136" ht="12" customHeight="1"/>
     <row r="137" ht="23" customHeight="1">
       <c r="A137" s="49" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B137" s="49"/>
       <c r="C137" s="49"/>
@@ -2364,7 +2520,7 @@
     <row r="142" ht="12" customHeight="1"/>
     <row r="143" ht="23" customHeight="1">
       <c r="A143" s="45" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B143" s="45"/>
       <c r="C143" s="45"/>
@@ -2415,7 +2571,7 @@
     </row>
     <row r="148" ht="23" customHeight="1">
       <c r="A148" s="52" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B148" s="52"/>
       <c r="C148" s="52"/>
@@ -2466,7 +2622,7 @@
     </row>
     <row r="153" ht="23" customHeight="1">
       <c r="A153" s="55" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B153" s="55"/>
       <c r="C153" s="55"/>
@@ -2518,7 +2674,7 @@
     <row r="158" ht="12" customHeight="1"/>
     <row r="159" ht="23" customHeight="1">
       <c r="A159" s="10" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -2570,7 +2726,7 @@
     <row r="164" ht="12" customHeight="1"/>
     <row r="165" ht="23" customHeight="1">
       <c r="A165" s="52" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B165" s="52"/>
       <c r="C165" s="52"/>
@@ -2621,7 +2777,7 @@
     </row>
     <row r="170" ht="23" customHeight="1">
       <c r="A170" s="56" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
@@ -2673,7 +2829,7 @@
     <row r="175" ht="12" customHeight="1"/>
     <row r="176" ht="23" customHeight="1">
       <c r="A176" s="36" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B176" s="36"/>
       <c r="C176" s="36"/>
@@ -2725,7 +2881,7 @@
     <row r="181" ht="12" customHeight="1"/>
     <row r="182" ht="12" customHeight="1">
       <c r="A182" s="59" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B182" s="59"/>
       <c r="C182" s="59"/>
@@ -2777,7 +2933,7 @@
     <row r="187" ht="12" customHeight="1"/>
     <row r="188" ht="23" customHeight="1">
       <c r="A188" s="62" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B188" s="62"/>
       <c r="C188" s="62"/>
@@ -2829,7 +2985,7 @@
     <row r="193" ht="12" customHeight="1"/>
     <row r="194" ht="23" customHeight="1">
       <c r="A194" s="30" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B194" s="30"/>
       <c r="C194" s="30"/>
@@ -2881,7 +3037,7 @@
     <row r="199" ht="12" customHeight="1"/>
     <row r="200" ht="23" customHeight="1">
       <c r="A200" s="63" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B200" s="63"/>
       <c r="C200" s="63"/>
@@ -2933,7 +3089,7 @@
     <row r="205" ht="12" customHeight="1"/>
     <row r="206" ht="23" customHeight="1">
       <c r="A206" s="64" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B206" s="64"/>
       <c r="C206" s="64"/>
@@ -2984,7 +3140,7 @@
     </row>
     <row r="211" ht="23" customHeight="1">
       <c r="A211" s="30" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B211" s="30"/>
       <c r="C211" s="30"/>
@@ -3036,7 +3192,7 @@
     <row r="216" ht="12" customHeight="1"/>
     <row r="217" ht="22" customHeight="1">
       <c r="A217" s="67" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B217" s="67"/>
       <c r="C217" s="67"/>
@@ -3088,7 +3244,7 @@
     <row r="222" ht="12" customHeight="1"/>
     <row r="223" ht="23" customHeight="1">
       <c r="A223" s="64" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B223" s="64"/>
       <c r="C223" s="64"/>
@@ -3139,7 +3295,7 @@
     </row>
     <row r="228" ht="23" customHeight="1">
       <c r="A228" s="70" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B228" s="70"/>
       <c r="C228" s="70"/>
@@ -3191,7 +3347,7 @@
     <row r="233" ht="12" customHeight="1"/>
     <row r="234" ht="23" customHeight="1">
       <c r="A234" s="71" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B234" s="71"/>
       <c r="C234" s="71"/>
@@ -3243,7 +3399,7 @@
     <row r="239" ht="12" customHeight="1"/>
     <row r="240" ht="23" customHeight="1">
       <c r="A240" s="74" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B240" s="74"/>
       <c r="C240" s="74"/>
@@ -3295,7 +3451,7 @@
     <row r="245" ht="12" customHeight="1"/>
     <row r="246" ht="23" customHeight="1">
       <c r="A246" s="79" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B246" s="79"/>
       <c r="C246" s="79"/>
@@ -3347,7 +3503,7 @@
     <row r="251" ht="12" customHeight="1"/>
     <row r="252" ht="23" customHeight="1">
       <c r="A252" s="10" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B252" s="10"/>
       <c r="C252" s="10"/>
@@ -3399,7 +3555,7 @@
     <row r="257" ht="12" customHeight="1"/>
     <row r="258" ht="23" customHeight="1">
       <c r="A258" s="82" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B258" s="82"/>
       <c r="C258" s="82"/>
@@ -3451,7 +3607,7 @@
     <row r="263" ht="12" customHeight="1"/>
     <row r="264" ht="23" customHeight="1">
       <c r="A264" s="79" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B264" s="79"/>
       <c r="C264" s="79"/>
@@ -3503,7 +3659,7 @@
     <row r="269" ht="12" customHeight="1"/>
     <row r="270" ht="21" customHeight="1">
       <c r="A270" s="85" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B270" s="85"/>
       <c r="C270" s="85"/>
@@ -3555,7 +3711,7 @@
     <row r="275" ht="12" customHeight="1"/>
     <row r="276" ht="23" customHeight="1">
       <c r="A276" s="88" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B276" s="88"/>
       <c r="C276" s="88"/>
@@ -3607,7 +3763,7 @@
     <row r="281" ht="12" customHeight="1"/>
     <row r="282" ht="23" customHeight="1">
       <c r="A282" s="89" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B282" s="89"/>
       <c r="C282" s="89"/>
@@ -3659,7 +3815,7 @@
     <row r="287" ht="12" customHeight="1"/>
     <row r="288" ht="23" customHeight="1">
       <c r="A288" s="64" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B288" s="64"/>
       <c r="C288" s="64"/>
@@ -3710,7 +3866,7 @@
     </row>
     <row r="293" ht="23" customHeight="1">
       <c r="A293" s="42" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B293" s="42"/>
       <c r="C293" s="42"/>
@@ -3762,7 +3918,7 @@
     <row r="298" ht="12" customHeight="1"/>
     <row r="299" ht="23" customHeight="1">
       <c r="A299" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -3814,7 +3970,7 @@
     <row r="304" ht="12" customHeight="1"/>
     <row r="305" ht="23" customHeight="1">
       <c r="A305" s="64" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B305" s="64"/>
       <c r="C305" s="64"/>
@@ -3865,7 +4021,7 @@
     </row>
     <row r="310" ht="23" customHeight="1">
       <c r="A310" s="79" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B310" s="79"/>
       <c r="C310" s="79"/>
@@ -3917,7 +4073,7 @@
     <row r="315" ht="12" customHeight="1"/>
     <row r="316" ht="23" customHeight="1">
       <c r="A316" s="13" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B316" s="13"/>
       <c r="C316" s="13"/>
@@ -3969,7 +4125,7 @@
     <row r="321" ht="12" customHeight="1"/>
     <row r="322" ht="23" customHeight="1">
       <c r="A322" s="92" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B322" s="92"/>
       <c r="C322" s="92"/>
